--- a/Data/Transitions/19521969Translation.xlsx
+++ b/Data/Transitions/19521969Translation.xlsx
@@ -442,7 +442,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -811,7 +811,7 @@
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1531,7 +1531,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{235.0: 0.988542785535267, 49.0: 0.01145721446473326}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -2104,7 +2104,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611934, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2212,7 +2212,7 @@
     <t>{933.0: 0.9655641758540902, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
